--- a/output_2_jobs.xlsx
+++ b/output_2_jobs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,222 +423,134 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.9823097929606626</v>
+        <v>0.5271007297619047</v>
       </c>
       <c r="B1" t="n">
-        <v>1.864609683743889</v>
+        <v>0.6999874249999999</v>
       </c>
       <c r="C1" t="n">
-        <v>3.817959875637102</v>
+        <v>0.7176231818181819</v>
       </c>
       <c r="D1" t="n">
-        <v>6.988898290554237</v>
+        <v>12.46484587993256</v>
       </c>
       <c r="E1" t="n">
-        <v>4.890364352863633</v>
+        <v>7.10910444985922</v>
       </c>
       <c r="F1" t="n">
-        <v>6.081962145036971</v>
+        <v>8.650753693590143</v>
       </c>
       <c r="G1" t="n">
-        <v>3.871850402554863</v>
+        <v>4.797403810912705</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9823097929606626</v>
+        <v>0.9611838095238094</v>
       </c>
       <c r="I1" t="n">
-        <v>1.864609683743889</v>
+        <v>1.1295</v>
       </c>
       <c r="J1" t="n">
-        <v>6.874211488645621</v>
+        <v>1.701</v>
       </c>
       <c r="K1" t="n">
-        <v>8.130081300813009</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="L1" t="n">
-        <v>8</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="M1" t="n">
-        <v>8.130081300813009</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="N1" t="n">
-        <v>7.258612723527323</v>
+        <v>9.282459047619072</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9680190792838874</v>
+        <v>0.5573048535714286</v>
       </c>
       <c r="B2" t="n">
-        <v>2.357120460994335</v>
+        <v>0.7025460839285713</v>
       </c>
       <c r="C2" t="n">
-        <v>4.805623788127648</v>
+        <v>0.7348163988095239</v>
       </c>
       <c r="D2" t="n">
-        <v>7.736780982677098</v>
+        <v>11.86031911428726</v>
       </c>
       <c r="E2" t="n">
-        <v>8.060322580645161</v>
+        <v>6.051604790068991</v>
       </c>
       <c r="F2" t="n">
-        <v>7.980366221044769</v>
+        <v>6.982039627703506</v>
       </c>
       <c r="G2" t="n">
-        <v>4.137571369295146</v>
+        <v>3.718281338095241</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9680190792838874</v>
+        <v>0.9768704761904761</v>
       </c>
       <c r="I2" t="n">
-        <v>2.357120460994335</v>
+        <v>1.1309</v>
       </c>
       <c r="J2" t="n">
-        <v>8.087598811186508</v>
+        <v>1.23</v>
       </c>
       <c r="K2" t="n">
-        <v>8.130081300813009</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="L2" t="n">
-        <v>8.064516129032258</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="M2" t="n">
-        <v>8.130081300813009</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="N2" t="n">
-        <v>8.6117601190341</v>
+        <v>7.252108769841285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9774867647058822</v>
+        <v>0.5152579797619048</v>
       </c>
       <c r="B3" t="n">
-        <v>1.997691217268261</v>
+        <v>0.6864508202380952</v>
       </c>
       <c r="C3" t="n">
-        <v>4.674252363756353</v>
+        <v>0.7785132716450215</v>
       </c>
       <c r="D3" t="n">
-        <v>7.104493613911925</v>
+        <v>12.82481683229762</v>
       </c>
       <c r="E3" t="n">
-        <v>6.023514186516861</v>
+        <v>7.548140033400213</v>
       </c>
       <c r="F3" t="n">
-        <v>6.634752234100636</v>
+        <v>9.371785378202745</v>
       </c>
       <c r="G3" t="n">
-        <v>3.842171680566482</v>
+        <v>5.139293326785719</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9774867647058822</v>
+        <v>0.9398685714285714</v>
       </c>
       <c r="I3" t="n">
-        <v>1.997691217268261</v>
+        <v>1.1295</v>
       </c>
       <c r="J3" t="n">
-        <v>7.539456023517502</v>
+        <v>1.563</v>
       </c>
       <c r="K3" t="n">
-        <v>8.130081300813009</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="L3" t="n">
-        <v>8.064516129032258</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="M3" t="n">
-        <v>8.064516129032258</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="N3" t="n">
-        <v>8.003371321248515</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.9506256578947367</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.09239130264235</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.429874724742563</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.213313344083063</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.219142720365366</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.896649613357247</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.08809012508756</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9506256578947367</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.09239130264235</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.376562717920408</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.130081300813009</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.064516129032258</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8.064516129032258</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.827641683003725</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.9294746558441558</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.17972787990599</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.985867550916833</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.991206071653087</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.446652481486386</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.253555574783673</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.887271552746592</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9294746558441558</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.17972787990599</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.902605818126235</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.064516129032258</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8.064516129032258</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.431352968946763</v>
+        <v>10.13374646825399</v>
       </c>
     </row>
   </sheetData>

--- a/output_2_jobs.xlsx
+++ b/output_2_jobs.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC63B6-1C7E-44F1-B998-4CB653439323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,152 +360,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>0.5271007297619047</v>
       </c>
-      <c r="B1" t="n">
-        <v>0.6999874249999999</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.7176231818181819</v>
-      </c>
-      <c r="D1" t="n">
-        <v>12.46484587993256</v>
-      </c>
-      <c r="E1" t="n">
-        <v>7.10910444985922</v>
-      </c>
-      <c r="F1" t="n">
-        <v>8.650753693590143</v>
-      </c>
-      <c r="G1" t="n">
-        <v>4.797403810912705</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.9611838095238094</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="J1" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="K1" t="n">
+      <c r="B1">
+        <v>0.69998742499999989</v>
+      </c>
+      <c r="C1">
+        <v>0.71762318181818185</v>
+      </c>
+      <c r="D1">
+        <v>12.464845879932559</v>
+      </c>
+      <c r="E1">
+        <v>7.1091044498592204</v>
+      </c>
+      <c r="F1">
+        <v>8.6507536935901435</v>
+      </c>
+      <c r="G1">
+        <v>4.7974038109127051</v>
+      </c>
+      <c r="H1">
+        <v>0.96118380952380944</v>
+      </c>
+      <c r="I1">
+        <v>1.1294999999999999</v>
+      </c>
+      <c r="J1">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="K1">
         <v>14.28571428571429</v>
       </c>
-      <c r="L1" t="n">
+      <c r="L1">
         <v>14.08450704225352</v>
       </c>
-      <c r="M1" t="n">
+      <c r="M1">
         <v>14.08450704225352</v>
       </c>
-      <c r="N1" t="n">
-        <v>9.282459047619072</v>
+      <c r="N1">
+        <v>9.2824590476190725</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5573048535714286</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7025460839285713</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7348163988095239</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.86031911428726</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.051604790068991</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.982039627703506</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.718281338095241</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9768704761904761</v>
-      </c>
-      <c r="I2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.55730485357142856</v>
+      </c>
+      <c r="B2">
+        <v>0.70254608392857132</v>
+      </c>
+      <c r="C2">
+        <v>0.73481639880952387</v>
+      </c>
+      <c r="D2">
+        <v>11.860319114287259</v>
+      </c>
+      <c r="E2">
+        <v>6.0516047900689909</v>
+      </c>
+      <c r="F2">
+        <v>6.9820396277035064</v>
+      </c>
+      <c r="G2">
+        <v>3.7182813380952409</v>
+      </c>
+      <c r="H2">
+        <v>0.97687047619047607</v>
+      </c>
+      <c r="I2">
         <v>1.1309</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1.23</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>14.28571428571429</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>14.08450704225352</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>14.08450704225352</v>
       </c>
-      <c r="N2" t="n">
-        <v>7.252108769841285</v>
+      <c r="N2">
+        <v>7.2521087698412847</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.5152579797619048</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6864508202380952</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7785132716450215</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.82481683229762</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.548140033400213</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.371785378202745</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.139293326785719</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9398685714285714</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.1295</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.563</v>
-      </c>
-      <c r="K3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.51525797976190479</v>
+      </c>
+      <c r="B3">
+        <v>0.68645082023809523</v>
+      </c>
+      <c r="C3">
+        <v>0.77851327164502149</v>
+      </c>
+      <c r="D3">
+        <v>12.824816832297619</v>
+      </c>
+      <c r="E3">
+        <v>7.5481400334002133</v>
+      </c>
+      <c r="F3">
+        <v>9.3717853782027447</v>
+      </c>
+      <c r="G3">
+        <v>5.1392933267857188</v>
+      </c>
+      <c r="H3">
+        <v>0.93986857142857139</v>
+      </c>
+      <c r="I3">
+        <v>1.1294999999999999</v>
+      </c>
+      <c r="J3">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="K3">
         <v>14.28571428571429</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>14.08450704225352</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>14.08450704225352</v>
       </c>
-      <c r="N3" t="n">
-        <v>10.13374646825399</v>
+      <c r="N3">
+        <v>10.133746468253991</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>